--- a/reported-results/dacapo/table-mdp-results.xlsx
+++ b/reported-results/dacapo/table-mdp-results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Benchmark	</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Hitting-Gurobi</t>
   </si>
   <si>
+    <t xml:space="preserve">Hitting-Matlab</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Hitting-SI  </t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">DS-Gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-Matlab</t>
   </si>
   <si>
     <t xml:space="preserve"> DS-SI   </t>
@@ -212,12 +218,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF450"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -260,8 +272,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -315,7 +335,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFF450"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -346,16 +366,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M41" activeCellId="0" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="7" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,10 +395,10 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -389,19 +413,25 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.012978</v>
@@ -412,37 +442,43 @@
       <c r="D2" s="0" t="n">
         <v>0.7523</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.989118364</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="3" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>0.383808</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>0.207306</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>0.02566</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>0.319308</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>0.809296</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="2" t="n">
         <v>1.202439598</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="3" t="n">
+        <v>39.74</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>1.539521</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>0.664116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.010015</v>
@@ -453,37 +489,43 @@
       <c r="D3" s="0" t="n">
         <v>1.205801</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>1.556008225</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="3" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>0.220113</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>0.108599</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>0.016692</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>0.087025</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>1.328809</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="L3" s="2" t="n">
         <v>2.024995275</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="3" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>0.641627</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>0.139148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.005053</v>
@@ -494,37 +536,43 @@
       <c r="D4" s="0" t="n">
         <v>1.080392</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>1.359126671</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="3" t="n">
+        <v>27.85</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>0.151854</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>0.076215</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>0.018095</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>0.004946</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>1.203075</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="L4" s="2" t="n">
         <v>1.500384301</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="3" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="N4" s="0" t="n">
         <v>0.31613</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>0.086971</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.134978</v>
@@ -535,37 +583,43 @@
       <c r="D5" s="0" t="n">
         <v>18.708731</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>24.667218113</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="3" t="n">
+        <v>290.39</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>4.39129</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>2.03788</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>0.259946</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>0.915942</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>19.798955</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="L5" s="2" t="n">
         <v>25.89819521</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="3" t="n">
+        <v>389.31</v>
+      </c>
+      <c r="N5" s="0" t="n">
         <v>19.05126</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>2.563524</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.007876</v>
@@ -576,37 +630,43 @@
       <c r="D6" s="0" t="n">
         <v>0.234183</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.289903129</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="3" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>0.120212</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>0.059573</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>0.007618</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>0.085872</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>0.206945</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="L6" s="2" t="n">
         <v>0.264056595</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="3" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="N6" s="0" t="n">
         <v>0.155771</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>0.078277</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.01272</v>
@@ -617,37 +677,43 @@
       <c r="D7" s="0" t="n">
         <v>1.18706</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>1.370487862</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="3" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>0.314666</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>0.156605</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>0.024782</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>0.091395</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>1.01284</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="L7" s="2" t="n">
         <v>1.32598725</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="3" t="n">
+        <v>37.47</v>
+      </c>
+      <c r="N7" s="0" t="n">
         <v>0.622146</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>0.158076</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.00271</v>
@@ -658,37 +724,43 @@
       <c r="D8" s="0" t="n">
         <v>0.225084</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.235677697</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="3" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>0.037803</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>0.018163</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>0.003345</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>0.003774</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>0.191323</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="L8" s="2" t="n">
         <v>0.298523074</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="3" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="N8" s="0" t="n">
         <v>0.080018</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>0.019975</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.03319</v>
@@ -699,37 +771,43 @@
       <c r="D9" s="0" t="n">
         <v>5.541984</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>6.692830186</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="3" t="n">
+        <v>117.38</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>1.052331</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>0.461381</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>0.063274</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>0.11316</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>4.792921</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="L9" s="2" t="n">
         <v>6.924275736</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="3" t="n">
+        <v>78.85</v>
+      </c>
+      <c r="N9" s="0" t="n">
         <v>2.950777</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>0.55254</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.011344</v>
@@ -740,37 +818,43 @@
       <c r="D10" s="0" t="n">
         <v>1.70944</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>2.156209204</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="3" t="n">
+        <v>48.41</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>0.297628</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>0.1372</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>0.025439</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>0.02804</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>1.491169</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="L10" s="2" t="n">
         <v>2.221899618</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="3" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="N10" s="0" t="n">
         <v>1.057371</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>0.153889</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.009041</v>
@@ -781,37 +865,43 @@
       <c r="D11" s="0" t="n">
         <v>0.807008</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>1.004700424</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="3" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>0.258675</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>0.113465</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>0.028745</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>0.087394</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>0.725601</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="L11" s="2" t="n">
         <v>0.988853539</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="3" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="N11" s="0" t="n">
         <v>1.389342</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>0.138864</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.001749</v>
@@ -822,37 +912,43 @@
       <c r="D12" s="0" t="n">
         <v>0.387111</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>0.540110847</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>0.12354</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>0.045288</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>0.003818</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>0.004317</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>0.33759</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="L12" s="2" t="n">
         <v>0.534065442</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="3" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="N12" s="0" t="n">
         <v>0.158301</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>0.032327</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.003485</v>
@@ -863,37 +959,43 @@
       <c r="D13" s="0" t="n">
         <v>0.247227</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>0.339573625</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>0.090991</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>0.039396</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>0.006783</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>0.040549</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>0.23486</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="L13" s="2" t="n">
         <v>0.289916325</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="3" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="N13" s="0" t="n">
         <v>0.350637</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>0.053052</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.054038</v>
@@ -904,37 +1006,43 @@
       <c r="D14" s="0" t="n">
         <v>2.582773</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>3.861465927</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="3" t="n">
+        <v>92.63</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>1.766483</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>0.64496</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>0.10414</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>0.292044</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>2.85201</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="L14" s="2" t="n">
         <v>3.474875205</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="3" t="n">
+        <v>72.86</v>
+      </c>
+      <c r="N14" s="0" t="n">
         <v>3.679077</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>0.509558</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.001006</v>
@@ -945,37 +1053,43 @@
       <c r="D15" s="0" t="n">
         <v>0.055166</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <v>0.094035622</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="3" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>0.01816</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>0.007997</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>0.00149</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>0.001732</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>0.057128</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="L15" s="2" t="n">
         <v>0.071896212</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="3" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="N15" s="0" t="n">
         <v>0.036538</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>0.009784</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.005073</v>
@@ -986,37 +1100,43 @@
       <c r="D16" s="0" t="n">
         <v>0.443704</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="2" t="n">
         <v>0.526462188</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="3" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>0.134342</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>0.065531</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>0.008376</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>0.019824</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>0.426742</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="L16" s="2" t="n">
         <v>0.540656089</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="3" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="N16" s="0" t="n">
         <v>0.160355</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.073011</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.00033</v>
@@ -1027,37 +1147,43 @@
       <c r="D17" s="0" t="n">
         <v>0.022429</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="2" t="n">
         <v>0.01946695</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="3" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>0.00787</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>0.004071</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>0.000344</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>0.000275</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>0.020594</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="L17" s="2" t="n">
         <v>0.020036184</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="3" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="N17" s="0" t="n">
         <v>0.036853</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>0.004306</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.001599</v>
@@ -1068,37 +1194,43 @@
       <c r="D18" s="0" t="n">
         <v>0.039497</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="2" t="n">
         <v>0.049879008</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="3" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="G18" s="0" t="n">
         <v>0.034733</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>0.015529</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>0.002392</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>0.011305</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>0.03813</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="L18" s="2" t="n">
         <v>0.037144059</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="N18" s="0" t="n">
         <v>0.04062</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>0.016531</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.005161</v>
@@ -1109,37 +1241,43 @@
       <c r="D19" s="0" t="n">
         <v>0.040363</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="2" t="n">
         <v>0.057462268</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="3" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>0.029181</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>0.014413</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>0.00248</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>0.011333</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>0.037696</v>
       </c>
-      <c r="K19" s="1" t="n">
+      <c r="L19" s="2" t="n">
         <v>0.041222086</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="3" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="N19" s="0" t="n">
         <v>0.040097</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>0.020037</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.001798</v>
@@ -1150,37 +1288,43 @@
       <c r="D20" s="0" t="n">
         <v>0.129659</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="2" t="n">
         <v>0.184509073</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="3" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>0.019159</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>0.008634</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>0.001505</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>0.001149</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>0.130671</v>
       </c>
-      <c r="K20" s="1" t="n">
+      <c r="L20" s="2" t="n">
         <v>0.189875285</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="3" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="N20" s="0" t="n">
         <v>0.168633</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>0.010177</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000693</v>
@@ -1191,37 +1335,43 @@
       <c r="D21" s="0" t="n">
         <v>0.076452</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="2" t="n">
         <v>0.113821278</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="3" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="G21" s="0" t="n">
         <v>0.017026</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>0.010006</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>0.00507</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>0.001165</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>0.072285</v>
       </c>
-      <c r="K21" s="1" t="n">
+      <c r="L21" s="2" t="n">
         <v>0.101478586</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="3" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="N21" s="0" t="n">
         <v>0.015487</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>0.012075</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.000731</v>
@@ -1232,37 +1382,43 @@
       <c r="D22" s="0" t="n">
         <v>0.083041</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2" t="n">
         <v>0.097986791</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="3" t="n">
+        <v>8.95</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>0.033084</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>0.015306</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>0.001335</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>0.0015</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>0.090544</v>
       </c>
-      <c r="K22" s="1" t="n">
+      <c r="L22" s="2" t="n">
         <v>0.087692937</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="3" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="N22" s="0" t="n">
         <v>0.04721</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>0.016262</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.124886</v>
@@ -1273,37 +1429,43 @@
       <c r="D23" s="0" t="n">
         <v>16.303976</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2" t="n">
         <v>20.868663764</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="3" t="n">
+        <v>256.4</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>3.772966</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>1.764916</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>0.250039</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>1.22211</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>15.756784</v>
       </c>
-      <c r="K23" s="1" t="n">
+      <c r="L23" s="2" t="n">
         <v>19.198405994</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="3" t="n">
+        <v>303.18</v>
+      </c>
+      <c r="N23" s="0" t="n">
         <v>14.63486</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>2.181765</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.259439</v>
@@ -1314,37 +1476,43 @@
       <c r="D24" s="0" t="n">
         <v>14.329222</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2" t="n">
         <v>20.265736767</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="3" t="n">
+        <v>406.15</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>6.405066</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>2.76358</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>0.558125</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>1.371894</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>14.745187</v>
       </c>
-      <c r="K24" s="1" t="n">
+      <c r="L24" s="2" t="n">
         <v>17.845156291</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="3" t="n">
+        <v>598.65</v>
+      </c>
+      <c r="N24" s="0" t="n">
         <v>15.26801</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>3.719523</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.037697</v>
@@ -1355,37 +1523,43 @@
       <c r="D25" s="0" t="n">
         <v>3.05149</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="2" t="n">
         <v>4.261839607</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="3" t="n">
+        <v>59.08</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>0.657958</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>0.313353</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>0.047693</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>0.238788</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>3.317738</v>
       </c>
-      <c r="K25" s="1" t="n">
+      <c r="L25" s="2" t="n">
         <v>4.505104091</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="3" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="N25" s="0" t="n">
         <v>1.836754</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>4.186794</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.073137</v>
@@ -1396,37 +1570,43 @@
       <c r="D26" s="0" t="n">
         <v>6.687902</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="2" t="n">
         <v>9.916796636</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="3" t="n">
+        <v>145.83</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>2.018089</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>1.131861</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>0.131455</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>0.598267</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>6.948775</v>
       </c>
-      <c r="K26" s="1" t="n">
+      <c r="L26" s="2" t="n">
         <v>9.306845579</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="3" t="n">
+        <v>133.24</v>
+      </c>
+      <c r="N26" s="0" t="n">
         <v>5.843052</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>1.237147</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.020245</v>
@@ -1437,37 +1617,43 @@
       <c r="D27" s="0" t="n">
         <v>3.178778</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="2" t="n">
         <v>4.089705101</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="3" t="n">
+        <v>41.38</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>0.621819</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>0.273178</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>0.058282</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>1.80345</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>3.115291</v>
       </c>
-      <c r="K27" s="1" t="n">
+      <c r="L27" s="2" t="n">
         <v>4.005117087</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="3" t="n">
+        <v>55.82</v>
+      </c>
+      <c r="N27" s="0" t="n">
         <v>7.404715</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>0.344619</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.011115</v>
@@ -1478,37 +1664,43 @@
       <c r="D28" s="0" t="n">
         <v>1.482523</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="2" t="n">
         <v>2.020845114</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="3" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="G28" s="0" t="n">
         <v>0.202126</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>0.104172</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>0.024439</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>0.027605</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>1.687311</v>
       </c>
-      <c r="K28" s="1" t="n">
+      <c r="L28" s="2" t="n">
         <v>2.188616129</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="3" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="N28" s="0" t="n">
         <v>0.466973</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>0.140526</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.014126</v>
@@ -1519,37 +1711,43 @@
       <c r="D29" s="0" t="n">
         <v>1.205554</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="2" t="n">
         <v>1.52360283</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="3" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="G29" s="0" t="n">
         <v>0.228174</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>0.117167</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>0.016884</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>0.282727</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>1.233603</v>
       </c>
-      <c r="K29" s="1" t="n">
+      <c r="L29" s="2" t="n">
         <v>1.815161016</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="3" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="N29" s="0" t="n">
         <v>0.371012</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>0.122255</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.011158</v>
@@ -1560,37 +1758,43 @@
       <c r="D30" s="0" t="n">
         <v>3.281118</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="2" t="n">
         <v>4.481300268</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="3" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>0.281841</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>0.17565</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>0.029669</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>0.012851</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>3.430306</v>
       </c>
-      <c r="K30" s="1" t="n">
+      <c r="L30" s="2" t="n">
         <v>4.548698257</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="3" t="n">
+        <v>54.49</v>
+      </c>
+      <c r="N30" s="0" t="n">
         <v>1.619028</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>0.197359</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.168628</v>
@@ -1601,37 +1805,43 @@
       <c r="D31" s="0" t="n">
         <v>9.234395</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="2" t="n">
         <v>12.982068494</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="3" t="n">
+        <v>322.52</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>2.920007</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>1.612557</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>0.297333</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>2.244181</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>8.682214</v>
       </c>
-      <c r="K31" s="1" t="n">
+      <c r="L31" s="2" t="n">
         <v>12.397447136</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="3" t="n">
+        <v>189.91</v>
+      </c>
+      <c r="N31" s="0" t="n">
         <v>7.403841</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>2.248964</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.019777</v>
@@ -1642,37 +1852,43 @@
       <c r="D32" s="0" t="n">
         <v>0.92039</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="2" t="n">
         <v>1.177119464</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="3" t="n">
+        <v>40.06</v>
+      </c>
+      <c r="G32" s="0" t="n">
         <v>0.67695</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>0.269946</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>0.042123</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>0.411799</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>0.98169</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="L32" s="2" t="n">
         <v>1.384434157</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="3" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="N32" s="0" t="n">
         <v>1.68492</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>0.558026</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.142384</v>
@@ -1683,37 +1899,43 @@
       <c r="D33" s="0" t="n">
         <v>13.770156</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="2" t="n">
         <v>21.09903042</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="3" t="n">
+        <v>512.47</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>5.271684</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="H33" s="0" t="n">
         <v>2.25309</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="I33" s="0" t="n">
         <v>0.259932</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="J33" s="0" t="n">
         <v>1.220962</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="K33" s="0" t="n">
         <v>17.261497</v>
       </c>
-      <c r="K33" s="1" t="n">
+      <c r="L33" s="2" t="n">
         <v>21.831830143</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="M33" s="3" t="n">
+        <v>240.07</v>
+      </c>
+      <c r="N33" s="0" t="n">
         <v>17.99462</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="O33" s="0" t="n">
         <v>2.848969</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.070649</v>
@@ -1724,37 +1946,43 @@
       <c r="D34" s="0" t="n">
         <v>2.919494</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="2" t="n">
         <v>4.328732361</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="3" t="n">
+        <v>56.01</v>
+      </c>
+      <c r="G34" s="0" t="n">
         <v>1.289583</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="H34" s="0" t="n">
         <v>0.645226</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="I34" s="0" t="n">
         <v>0.100034</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="J34" s="0" t="n">
         <v>0.657762</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="K34" s="0" t="n">
         <v>3.852454</v>
       </c>
-      <c r="K34" s="1" t="n">
+      <c r="L34" s="2" t="n">
         <v>5.271900714</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="M34" s="3" t="n">
+        <v>64.05</v>
+      </c>
+      <c r="N34" s="0" t="n">
         <v>2.57026</v>
       </c>
-      <c r="M34" s="0" t="n">
+      <c r="O34" s="0" t="n">
         <v>0.883578</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.025056</v>
@@ -1765,37 +1993,43 @@
       <c r="D35" s="0" t="n">
         <v>2.098104</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="2" t="n">
         <v>3.665815155</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="3" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="G35" s="0" t="n">
         <v>0.609718</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="H35" s="0" t="n">
         <v>0.310635</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="I35" s="0" t="n">
         <v>0.040708</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="J35" s="0" t="n">
         <v>0.180696</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="K35" s="0" t="n">
         <v>2.675934</v>
       </c>
-      <c r="K35" s="1" t="n">
+      <c r="L35" s="2" t="n">
         <v>3.726900858</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="M35" s="3" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="N35" s="0" t="n">
         <v>1.528859</v>
       </c>
-      <c r="M35" s="0" t="n">
+      <c r="O35" s="0" t="n">
         <v>0.430018</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.003245</v>
@@ -1806,37 +2040,43 @@
       <c r="D36" s="0" t="n">
         <v>0.27254</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="2" t="n">
         <v>0.441355891</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="3" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="G36" s="0" t="n">
         <v>0.06386</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="H36" s="0" t="n">
         <v>0.031805</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="I36" s="0" t="n">
         <v>0.005584</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="J36" s="0" t="n">
         <v>0.00694</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="K36" s="0" t="n">
         <v>0.372487</v>
       </c>
-      <c r="K36" s="1" t="n">
+      <c r="L36" s="2" t="n">
         <v>0.482841861</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="M36" s="3" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="N36" s="0" t="n">
         <v>0.158902</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="O36" s="0" t="n">
         <v>0.2059</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.158044</v>
@@ -1847,37 +2087,43 @@
       <c r="D37" s="0" t="n">
         <v>13.005833</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="2" t="n">
         <v>23.80962468</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="3" t="n">
+        <v>275.8</v>
+      </c>
+      <c r="G37" s="0" t="n">
         <v>4.778742</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="H37" s="0" t="n">
         <v>2.506894</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="I37" s="0" t="n">
         <v>0.301919</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="J37" s="0" t="n">
         <v>4.463294</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="K37" s="0" t="n">
         <v>16.620968</v>
       </c>
-      <c r="K37" s="1" t="n">
+      <c r="L37" s="2" t="n">
         <v>21.802530578</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="M37" s="3" t="n">
+        <v>208.95</v>
+      </c>
+      <c r="N37" s="0" t="n">
         <v>15.14658</v>
       </c>
-      <c r="M37" s="0" t="n">
+      <c r="O37" s="0" t="n">
         <v>2.597908</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.344215</v>
@@ -1888,37 +2134,43 @@
       <c r="D38" s="0" t="n">
         <v>14.79255</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="2" t="n">
         <v>22.625863255</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="3" t="n">
+        <v>257.56</v>
+      </c>
+      <c r="G38" s="0" t="n">
         <v>9.898406</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="H38" s="0" t="n">
         <v>4.583201</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="I38" s="0" t="n">
         <v>0.46794</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="J38" s="0" t="n">
         <v>6.199828</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="K38" s="0" t="n">
         <v>17.219125</v>
       </c>
-      <c r="K38" s="1" t="n">
+      <c r="L38" s="2" t="n">
         <v>24.701129614</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="M38" s="3" t="n">
+        <v>320.46</v>
+      </c>
+      <c r="N38" s="0" t="n">
         <v>38.72352</v>
       </c>
-      <c r="M38" s="0" t="n">
+      <c r="O38" s="0" t="n">
         <v>4.468582</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>4.4E-005</v>
@@ -1929,37 +2181,43 @@
       <c r="D39" s="0" t="n">
         <v>0.041449</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="2" t="n">
         <v>0.05033379</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="3" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="G39" s="0" t="n">
         <v>0.001505</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="H39" s="0" t="n">
         <v>0.000717</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="I39" s="0" t="n">
         <v>0.000147</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="J39" s="0" t="n">
         <v>1.6E-005</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="K39" s="0" t="n">
         <v>0.038885</v>
       </c>
-      <c r="K39" s="1" t="n">
+      <c r="L39" s="2" t="n">
         <v>0.074175344</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="M39" s="3" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="N39" s="0" t="n">
         <v>0.003177</v>
       </c>
-      <c r="M39" s="0" t="n">
+      <c r="O39" s="0" t="n">
         <v>0.000733</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>4.5E-005</v>
@@ -1970,37 +2228,43 @@
       <c r="D40" s="0" t="n">
         <v>0.038355</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="2" t="n">
         <v>0.047819613</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>0.001565</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="H40" s="0" t="n">
         <v>0.000846</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="I40" s="0" t="n">
         <v>0.000118</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="J40" s="0" t="n">
         <v>1.5E-005</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="K40" s="0" t="n">
         <v>0.041292</v>
       </c>
-      <c r="K40" s="1" t="n">
+      <c r="L40" s="2" t="n">
         <v>0.032013931</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="M40" s="3" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="N40" s="0" t="n">
         <v>0.002567</v>
       </c>
-      <c r="M40" s="0" t="n">
+      <c r="O40" s="0" t="n">
         <v>0.000762</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.071925</v>
@@ -2011,31 +2275,37 @@
       <c r="D41" s="0" t="n">
         <v>8.19395</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="2" t="n">
         <v>11.868058716</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="3" t="n">
+        <v>79.65</v>
+      </c>
+      <c r="G41" s="0" t="n">
         <v>1.905277</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="H41" s="0" t="n">
         <v>0.929326</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="I41" s="0" t="n">
         <v>0.15004</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="J41" s="0" t="n">
         <v>0.366232</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="K41" s="0" t="n">
         <v>8.279686</v>
       </c>
-      <c r="K41" s="1" t="n">
+      <c r="L41" s="2" t="n">
         <v>11.303440019</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="M41" s="3" t="n">
+        <v>144.15</v>
+      </c>
+      <c r="N41" s="0" t="n">
         <v>15.20058</v>
       </c>
-      <c r="M41" s="0" t="n">
+      <c r="O41" s="0" t="n">
         <v>1.089505</v>
       </c>
     </row>

--- a/reported-results/dacapo/table-mdp-results.xlsx
+++ b/reported-results/dacapo/table-mdp-results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Benchmark	</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve"> DS-VI   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">asm-3.1 </t>
@@ -366,10 +372,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M41" activeCellId="0" sqref="M41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2:Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -428,10 +434,16 @@
       <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.012978</v>
@@ -475,10 +487,16 @@
       <c r="O2" s="0" t="n">
         <v>0.664116</v>
       </c>
+      <c r="P2" s="0" t="n">
+        <v>3044</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>3262</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.010015</v>
@@ -522,10 +540,16 @@
       <c r="O3" s="0" t="n">
         <v>0.139148</v>
       </c>
+      <c r="P3" s="0" t="n">
+        <v>2404</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>2473</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.005053</v>
@@ -569,10 +593,16 @@
       <c r="O4" s="0" t="n">
         <v>0.086971</v>
       </c>
+      <c r="P4" s="0" t="n">
+        <v>1899</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1849</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.134978</v>
@@ -616,10 +646,16 @@
       <c r="O5" s="0" t="n">
         <v>2.563524</v>
       </c>
+      <c r="P5" s="0" t="n">
+        <v>43685</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>43521</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.007876</v>
@@ -663,10 +699,16 @@
       <c r="O6" s="0" t="n">
         <v>0.078277</v>
       </c>
+      <c r="P6" s="0" t="n">
+        <v>936</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>967</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.01272</v>
@@ -710,10 +752,16 @@
       <c r="O7" s="0" t="n">
         <v>0.158076</v>
       </c>
+      <c r="P7" s="0" t="n">
+        <v>2727</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>2973</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.00271</v>
@@ -757,10 +805,16 @@
       <c r="O8" s="0" t="n">
         <v>0.019975</v>
       </c>
+      <c r="P8" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>437</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.03319</v>
@@ -804,10 +858,16 @@
       <c r="O9" s="0" t="n">
         <v>0.55254</v>
       </c>
+      <c r="P9" s="0" t="n">
+        <v>9765</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>9772</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.011344</v>
@@ -851,10 +911,16 @@
       <c r="O10" s="0" t="n">
         <v>0.153889</v>
       </c>
+      <c r="P10" s="0" t="n">
+        <v>3216</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>3175</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.009041</v>
@@ -898,10 +964,16 @@
       <c r="O11" s="0" t="n">
         <v>0.138864</v>
       </c>
+      <c r="P11" s="0" t="n">
+        <v>2231</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>2303</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.001749</v>
@@ -945,10 +1017,16 @@
       <c r="O12" s="0" t="n">
         <v>0.032327</v>
       </c>
+      <c r="P12" s="0" t="n">
+        <v>689</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>677</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.003485</v>
@@ -992,10 +1070,16 @@
       <c r="O13" s="0" t="n">
         <v>0.053052</v>
       </c>
+      <c r="P13" s="0" t="n">
+        <v>776</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>758</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.054038</v>
@@ -1039,10 +1123,16 @@
       <c r="O14" s="0" t="n">
         <v>0.509558</v>
       </c>
+      <c r="P14" s="0" t="n">
+        <v>8572</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>9328</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.001006</v>
@@ -1086,10 +1176,16 @@
       <c r="O15" s="0" t="n">
         <v>0.009784</v>
       </c>
+      <c r="P15" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.005073</v>
@@ -1133,10 +1229,16 @@
       <c r="O16" s="0" t="n">
         <v>0.073011</v>
       </c>
+      <c r="P16" s="0" t="n">
+        <v>1293</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>1311</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.00033</v>
@@ -1180,10 +1282,16 @@
       <c r="O17" s="0" t="n">
         <v>0.004306</v>
       </c>
+      <c r="P17" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.001599</v>
@@ -1227,10 +1335,16 @@
       <c r="O18" s="0" t="n">
         <v>0.016531</v>
       </c>
+      <c r="P18" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.005161</v>
@@ -1274,10 +1388,16 @@
       <c r="O19" s="0" t="n">
         <v>0.020037</v>
       </c>
+      <c r="P19" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.001798</v>
@@ -1321,10 +1441,16 @@
       <c r="O20" s="0" t="n">
         <v>0.010177</v>
       </c>
+      <c r="P20" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000693</v>
@@ -1368,10 +1494,16 @@
       <c r="O21" s="0" t="n">
         <v>0.012075</v>
       </c>
+      <c r="P21" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.000731</v>
@@ -1415,10 +1547,16 @@
       <c r="O22" s="0" t="n">
         <v>0.016262</v>
       </c>
+      <c r="P22" s="0" t="n">
+        <v>339</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.124886</v>
@@ -1462,10 +1600,16 @@
       <c r="O23" s="0" t="n">
         <v>2.181765</v>
       </c>
+      <c r="P23" s="0" t="n">
+        <v>37865</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>37997</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.259439</v>
@@ -1509,10 +1653,16 @@
       <c r="O24" s="0" t="n">
         <v>3.719523</v>
       </c>
+      <c r="P24" s="0" t="n">
+        <v>45657</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>47039</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.037697</v>
@@ -1556,10 +1706,16 @@
       <c r="O25" s="0" t="n">
         <v>4.186794</v>
       </c>
+      <c r="P25" s="0" t="n">
+        <v>6099</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>6126</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.073137</v>
@@ -1603,10 +1759,16 @@
       <c r="O26" s="0" t="n">
         <v>1.237147</v>
       </c>
+      <c r="P26" s="0" t="n">
+        <v>16861</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>17021</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.020245</v>
@@ -1650,10 +1812,16 @@
       <c r="O27" s="0" t="n">
         <v>0.344619</v>
       </c>
+      <c r="P27" s="0" t="n">
+        <v>5490</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>5375</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.011115</v>
@@ -1697,10 +1865,16 @@
       <c r="O28" s="0" t="n">
         <v>0.140526</v>
       </c>
+      <c r="P28" s="0" t="n">
+        <v>2427</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>2387</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.014126</v>
@@ -1744,10 +1918,16 @@
       <c r="O29" s="0" t="n">
         <v>0.122255</v>
       </c>
+      <c r="P29" s="0" t="n">
+        <v>2040</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>1902</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.011158</v>
@@ -1791,10 +1971,16 @@
       <c r="O30" s="0" t="n">
         <v>0.197359</v>
       </c>
+      <c r="P30" s="0" t="n">
+        <v>4356</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>4067</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.168628</v>
@@ -1838,10 +2024,16 @@
       <c r="O31" s="0" t="n">
         <v>2.248964</v>
       </c>
+      <c r="P31" s="0" t="n">
+        <v>24906</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>25795</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.019777</v>
@@ -1885,10 +2077,16 @@
       <c r="O32" s="0" t="n">
         <v>0.558026</v>
       </c>
+      <c r="P32" s="0" t="n">
+        <v>4063</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>4413</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.142384</v>
@@ -1932,10 +2130,16 @@
       <c r="O33" s="0" t="n">
         <v>2.848969</v>
       </c>
+      <c r="P33" s="0" t="n">
+        <v>37822</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>38672</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.070649</v>
@@ -1979,10 +2183,16 @@
       <c r="O34" s="0" t="n">
         <v>0.883578</v>
       </c>
+      <c r="P34" s="0" t="n">
+        <v>11038</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>11751</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.025056</v>
@@ -2026,10 +2236,16 @@
       <c r="O35" s="0" t="n">
         <v>0.430018</v>
       </c>
+      <c r="P35" s="0" t="n">
+        <v>6174</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>6447</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.003245</v>
@@ -2073,10 +2289,16 @@
       <c r="O36" s="0" t="n">
         <v>0.2059</v>
       </c>
+      <c r="P36" s="0" t="n">
+        <v>738</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.158044</v>
@@ -2120,10 +2342,16 @@
       <c r="O37" s="0" t="n">
         <v>2.597908</v>
       </c>
+      <c r="P37" s="0" t="n">
+        <v>35765</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>36946</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.344215</v>
@@ -2167,10 +2395,16 @@
       <c r="O38" s="0" t="n">
         <v>4.468582</v>
       </c>
+      <c r="P38" s="0" t="n">
+        <v>50279</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>53639</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>4.4E-005</v>
@@ -2214,10 +2448,16 @@
       <c r="O39" s="0" t="n">
         <v>0.000733</v>
       </c>
+      <c r="P39" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>4.5E-005</v>
@@ -2261,10 +2501,16 @@
       <c r="O40" s="0" t="n">
         <v>0.000762</v>
       </c>
+      <c r="P40" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.071925</v>
@@ -2307,6 +2553,12 @@
       </c>
       <c r="O41" s="0" t="n">
         <v>1.089505</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>17677</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>17890</v>
       </c>
     </row>
   </sheetData>

--- a/reported-results/dacapo/table-mdp-results.xlsx
+++ b/reported-results/dacapo/table-mdp-results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t xml:space="preserve">Benchmark	</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve"> Hitting-VI  </t>
   </si>
   <si>
+    <t xml:space="preserve">Hitting-Storm</t>
+  </si>
+  <si>
     <t xml:space="preserve"> DS-Ours   </t>
   </si>
   <si>
@@ -73,124 +76,247 @@
     <t xml:space="preserve">E</t>
   </si>
   <si>
+    <t xml:space="preserve">Display-name</t>
+  </si>
+  <si>
     <t xml:space="preserve">asm-3.1 </t>
   </si>
   <si>
+    <t xml:space="preserve">asm</t>
+  </si>
+  <si>
     <t xml:space="preserve">asm-commons-3.1 </t>
   </si>
   <si>
+    <t xml:space="preserve">asm-c</t>
+  </si>
+  <si>
     <t xml:space="preserve">avalon-framework-4.2.0 </t>
   </si>
   <si>
+    <t xml:space="preserve">avalon</t>
+  </si>
+  <si>
     <t xml:space="preserve">avrora-cvs-20091224 </t>
   </si>
   <si>
+    <t xml:space="preserve">avrora</t>
+  </si>
+  <si>
     <t xml:space="preserve">bootstrap </t>
   </si>
   <si>
+    <t xml:space="preserve">bootstrap</t>
+  </si>
+  <si>
     <t xml:space="preserve">commons-codec </t>
   </si>
   <si>
+    <t xml:space="preserve">c-codec</t>
+  </si>
+  <si>
     <t xml:space="preserve">commons-daemon </t>
   </si>
   <si>
+    <t xml:space="preserve">c-daemon</t>
+  </si>
+  <si>
     <t xml:space="preserve">commons-httpclient </t>
   </si>
   <si>
+    <t xml:space="preserve">c-http</t>
+  </si>
+  <si>
     <t xml:space="preserve">commons-io-1.3.1 </t>
   </si>
   <si>
+    <t xml:space="preserve">c-io</t>
+  </si>
+  <si>
     <t xml:space="preserve">commons-logging </t>
   </si>
   <si>
+    <t xml:space="preserve">c-logging</t>
+  </si>
+  <si>
     <t xml:space="preserve">commons-logging-1.0.4 </t>
   </si>
   <si>
+    <t xml:space="preserve">c-logging-1.0.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">constantine </t>
   </si>
   <si>
+    <t xml:space="preserve">constantine</t>
+  </si>
+  <si>
     <t xml:space="preserve">crimson-1.1.3 </t>
   </si>
   <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
     <t xml:space="preserve">dacapo-digest </t>
   </si>
   <si>
+    <t xml:space="preserve">d-digest</t>
+  </si>
+  <si>
     <t xml:space="preserve">dacapo-h2 </t>
   </si>
   <si>
+    <t xml:space="preserve">d-h2</t>
+  </si>
+  <si>
     <t xml:space="preserve">dacapo-luindex </t>
   </si>
   <si>
+    <t xml:space="preserve">d-luindex</t>
+  </si>
+  <si>
     <t xml:space="preserve">dacapo-lusearch </t>
   </si>
   <si>
+    <t xml:space="preserve">d-lusearch</t>
+  </si>
+  <si>
     <t xml:space="preserve">dacapo-lusearch-fix </t>
   </si>
   <si>
+    <t xml:space="preserve">d-lusearch-f</t>
+  </si>
+  <si>
     <t xml:space="preserve">dacapo-tomcat </t>
   </si>
   <si>
+    <t xml:space="preserve">d-tomcat</t>
+  </si>
+  <si>
     <t xml:space="preserve">dacapo-xalan </t>
   </si>
   <si>
+    <t xml:space="preserve">d-xalan</t>
+  </si>
+  <si>
     <t xml:space="preserve">daytrader </t>
   </si>
   <si>
+    <t xml:space="preserve">daytrader</t>
+  </si>
+  <si>
     <t xml:space="preserve">derbyclient </t>
   </si>
   <si>
+    <t xml:space="preserve">derbyc</t>
+  </si>
+  <si>
     <t xml:space="preserve">eclipse </t>
   </si>
   <si>
+    <t xml:space="preserve">eclipse</t>
+  </si>
+  <si>
     <t xml:space="preserve">jaffl </t>
   </si>
   <si>
+    <t xml:space="preserve">jaffl</t>
+  </si>
+  <si>
     <t xml:space="preserve">janino-2.5.15 </t>
   </si>
   <si>
+    <t xml:space="preserve">janino</t>
+  </si>
+  <si>
     <t xml:space="preserve">jaxen-1.1.1 </t>
   </si>
   <si>
+    <t xml:space="preserve">jaxen</t>
+  </si>
+  <si>
     <t xml:space="preserve">jline-0.9.95-SNAPSHOT </t>
   </si>
   <si>
+    <t xml:space="preserve">jline</t>
+  </si>
+  <si>
     <t xml:space="preserve">jnr-posix </t>
   </si>
   <si>
+    <t xml:space="preserve">jnr</t>
+  </si>
+  <si>
     <t xml:space="preserve">junit-3.8.1 </t>
   </si>
   <si>
+    <t xml:space="preserve">junit</t>
+  </si>
+  <si>
     <t xml:space="preserve">lucene-core-2.4 </t>
   </si>
   <si>
+    <t xml:space="preserve">lucene-c</t>
+  </si>
+  <si>
     <t xml:space="preserve">lucene-demos-2.4 </t>
   </si>
   <si>
+    <t xml:space="preserve">lucene-d</t>
+  </si>
+  <si>
     <t xml:space="preserve">pmd-4.2.5 </t>
   </si>
   <si>
+    <t xml:space="preserve">pmd</t>
+  </si>
+  <si>
     <t xml:space="preserve">serializer </t>
   </si>
   <si>
+    <t xml:space="preserve">serializer</t>
+  </si>
+  <si>
     <t xml:space="preserve">serializer-2.7.0 </t>
   </si>
   <si>
+    <t xml:space="preserve">serializer-2.7.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">tomcat-juli </t>
   </si>
   <si>
+    <t xml:space="preserve">tomcat-j</t>
+  </si>
+  <si>
     <t xml:space="preserve">xalan-2.6.0 </t>
   </si>
   <si>
+    <t xml:space="preserve">xalan</t>
+  </si>
+  <si>
     <t xml:space="preserve">xerces_2_5_0 </t>
   </si>
   <si>
+    <t xml:space="preserve">xerces</t>
+  </si>
+  <si>
     <t xml:space="preserve">xml-apis </t>
   </si>
   <si>
+    <t xml:space="preserve">xml</t>
+  </si>
+  <si>
     <t xml:space="preserve">xml-apis-1.3.04 </t>
   </si>
   <si>
+    <t xml:space="preserve">xml-1.3.04</t>
+  </si>
+  <si>
     <t xml:space="preserve">xmlgraphics-commons-1.3.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xmlgraphics</t>
   </si>
 </sst>
 </file>
@@ -224,7 +350,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +365,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFADC5E7"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFADD58A"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFADC5E7"/>
       </patternFill>
     </fill>
   </fills>
@@ -278,7 +410,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -287,7 +419,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,7 +478,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFF450"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -372,10 +508,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2:Q41"/>
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -383,9 +519,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="7" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,10 +539,10 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -413,7 +551,7 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
@@ -422,13 +560,13 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="0" t="s">
@@ -440,10 +578,16 @@
       <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.012978</v>
@@ -454,10 +598,10 @@
       <c r="D2" s="0" t="n">
         <v>0.7523</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>0.989118364</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>17.84</v>
       </c>
       <c r="G2" s="0" t="n">
@@ -466,37 +610,43 @@
       <c r="H2" s="0" t="n">
         <v>0.207306</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="2" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>0.02566</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>0.319308</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>0.809296</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="M2" s="3" t="n">
         <v>1.202439598</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="N2" s="4" t="n">
         <v>39.74</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>1.539521</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>0.664116</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>3044</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>3262</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.010015</v>
@@ -507,10 +657,10 @@
       <c r="D3" s="0" t="n">
         <v>1.205801</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>1.556008225</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>21.84</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -519,37 +669,43 @@
       <c r="H3" s="0" t="n">
         <v>0.108599</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="2" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>0.016692</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>0.087025</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>1.328809</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="M3" s="3" t="n">
         <v>2.024995275</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="N3" s="4" t="n">
         <v>37.33</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>0.641627</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>0.139148</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>2404</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>2473</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.005053</v>
@@ -560,10 +716,10 @@
       <c r="D4" s="0" t="n">
         <v>1.080392</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>1.359126671</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>27.85</v>
       </c>
       <c r="G4" s="0" t="n">
@@ -572,37 +728,43 @@
       <c r="H4" s="0" t="n">
         <v>0.076215</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="2" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>0.018095</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>0.004946</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>1.203075</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="M4" s="3" t="n">
         <v>1.500384301</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="N4" s="4" t="n">
         <v>22.67</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>0.31613</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>0.086971</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>1899</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>1849</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.134978</v>
@@ -613,10 +775,10 @@
       <c r="D5" s="0" t="n">
         <v>18.708731</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>24.667218113</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>290.39</v>
       </c>
       <c r="G5" s="0" t="n">
@@ -625,37 +787,43 @@
       <c r="H5" s="0" t="n">
         <v>2.03788</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="2" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>0.259946</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>0.915942</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>19.798955</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="M5" s="3" t="n">
         <v>25.89819521</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="N5" s="4" t="n">
         <v>389.31</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>19.05126</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>2.563524</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>43685</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>43521</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.007876</v>
@@ -666,10 +834,10 @@
       <c r="D6" s="0" t="n">
         <v>0.234183</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>0.289903129</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>17.02</v>
       </c>
       <c r="G6" s="0" t="n">
@@ -678,37 +846,43 @@
       <c r="H6" s="0" t="n">
         <v>0.059573</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="2" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0.007618</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>0.085872</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>0.206945</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="M6" s="3" t="n">
         <v>0.264056595</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="N6" s="4" t="n">
         <v>15.08</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>0.155771</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>0.078277</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>936</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>967</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.01272</v>
@@ -719,10 +893,10 @@
       <c r="D7" s="0" t="n">
         <v>1.18706</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>1.370487862</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>20.03</v>
       </c>
       <c r="G7" s="0" t="n">
@@ -731,37 +905,43 @@
       <c r="H7" s="0" t="n">
         <v>0.156605</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="2" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>0.024782</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>0.091395</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>1.01284</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="M7" s="3" t="n">
         <v>1.32598725</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="N7" s="4" t="n">
         <v>37.47</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>0.622146</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>0.158076</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>2727</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>2973</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.00271</v>
@@ -772,10 +952,10 @@
       <c r="D8" s="0" t="n">
         <v>0.225084</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>0.235677697</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4" t="n">
         <v>9.18</v>
       </c>
       <c r="G8" s="0" t="n">
@@ -784,37 +964,43 @@
       <c r="H8" s="0" t="n">
         <v>0.018163</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J8" s="0" t="n">
         <v>0.003345</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>0.003774</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>0.191323</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="M8" s="3" t="n">
         <v>0.298523074</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="N8" s="4" t="n">
         <v>11.59</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>0.080018</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>0.019975</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>453</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>437</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.03319</v>
@@ -825,10 +1011,10 @@
       <c r="D9" s="0" t="n">
         <v>5.541984</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>6.692830186</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>117.38</v>
       </c>
       <c r="G9" s="0" t="n">
@@ -837,37 +1023,43 @@
       <c r="H9" s="0" t="n">
         <v>0.461381</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="2" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <v>0.063274</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>0.11316</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>4.792921</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="M9" s="3" t="n">
         <v>6.924275736</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="N9" s="4" t="n">
         <v>78.85</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>2.950777</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>0.55254</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>9765</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>9772</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.011344</v>
@@ -878,10 +1070,10 @@
       <c r="D10" s="0" t="n">
         <v>1.70944</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>2.156209204</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>48.41</v>
       </c>
       <c r="G10" s="0" t="n">
@@ -890,37 +1082,43 @@
       <c r="H10" s="0" t="n">
         <v>0.1372</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="2" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>0.025439</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>0.02804</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>1.491169</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="M10" s="3" t="n">
         <v>2.221899618</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="N10" s="4" t="n">
         <v>25.9</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>1.057371</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>0.153889</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>3216</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>3175</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.009041</v>
@@ -931,10 +1129,10 @@
       <c r="D11" s="0" t="n">
         <v>0.807008</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>1.004700424</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>29.37</v>
       </c>
       <c r="G11" s="0" t="n">
@@ -943,37 +1141,43 @@
       <c r="H11" s="0" t="n">
         <v>0.113465</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="2" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0.028745</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>0.087394</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>0.725601</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="M11" s="3" t="n">
         <v>0.988853539</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="N11" s="4" t="n">
         <v>25.38</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>1.389342</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>0.138864</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>2231</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>2303</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.001749</v>
@@ -984,10 +1188,10 @@
       <c r="D12" s="0" t="n">
         <v>0.387111</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>0.540110847</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>19.48</v>
       </c>
       <c r="G12" s="0" t="n">
@@ -996,37 +1200,43 @@
       <c r="H12" s="0" t="n">
         <v>0.045288</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="2" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>0.003818</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <v>0.004317</v>
-      </c>
       <c r="K12" s="0" t="n">
+        <v>0.087394</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>0.33759</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="M12" s="3" t="n">
         <v>0.534065442</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="N12" s="4" t="n">
         <v>12.68</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>0.158301</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>0.032327</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>689</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>677</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.003485</v>
@@ -1037,10 +1247,10 @@
       <c r="D13" s="0" t="n">
         <v>0.247227</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>0.339573625</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>17.65</v>
       </c>
       <c r="G13" s="0" t="n">
@@ -1049,37 +1259,43 @@
       <c r="H13" s="0" t="n">
         <v>0.039396</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>0.006783</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>0.040549</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>0.23486</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="M13" s="3" t="n">
         <v>0.289916325</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="N13" s="4" t="n">
         <v>12.54</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>0.350637</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>0.053052</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>776</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>758</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.054038</v>
@@ -1090,10 +1306,10 @@
       <c r="D14" s="0" t="n">
         <v>2.582773</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="3" t="n">
         <v>3.861465927</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="4" t="n">
         <v>92.63</v>
       </c>
       <c r="G14" s="0" t="n">
@@ -1102,37 +1318,43 @@
       <c r="H14" s="0" t="n">
         <v>0.64496</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J14" s="0" t="n">
         <v>0.10414</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>0.292044</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>2.85201</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="M14" s="3" t="n">
         <v>3.474875205</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="N14" s="4" t="n">
         <v>72.86</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>3.679077</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>0.509558</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>8572</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>9328</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.001006</v>
@@ -1143,10 +1365,10 @@
       <c r="D15" s="0" t="n">
         <v>0.055166</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="3" t="n">
         <v>0.094035622</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="4" t="n">
         <v>8.66</v>
       </c>
       <c r="G15" s="0" t="n">
@@ -1155,37 +1377,43 @@
       <c r="H15" s="0" t="n">
         <v>0.007997</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="2" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>0.00149</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>0.001732</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>0.057128</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="M15" s="3" t="n">
         <v>0.071896212</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="N15" s="4" t="n">
         <v>6.46</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>0.036538</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>0.009784</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>208</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.005073</v>
@@ -1196,10 +1424,10 @@
       <c r="D16" s="0" t="n">
         <v>0.443704</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="3" t="n">
         <v>0.526462188</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="4" t="n">
         <v>22.39</v>
       </c>
       <c r="G16" s="0" t="n">
@@ -1208,37 +1436,43 @@
       <c r="H16" s="0" t="n">
         <v>0.065531</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="2" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <v>0.008376</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>0.019824</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>0.426742</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="M16" s="3" t="n">
         <v>0.540656089</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="N16" s="4" t="n">
         <v>20.75</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.160355</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>0.073011</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>1293</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>1311</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.00033</v>
@@ -1249,10 +1483,10 @@
       <c r="D17" s="0" t="n">
         <v>0.022429</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="3" t="n">
         <v>0.01946695</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="4" t="n">
         <v>5.28</v>
       </c>
       <c r="G17" s="0" t="n">
@@ -1261,37 +1495,43 @@
       <c r="H17" s="0" t="n">
         <v>0.004071</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="2" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <v>0.000344</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>0.000275</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>0.020594</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="M17" s="3" t="n">
         <v>0.020036184</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="N17" s="4" t="n">
         <v>4.57</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>0.036853</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>0.004306</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>87</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.001599</v>
@@ -1302,10 +1542,10 @@
       <c r="D18" s="0" t="n">
         <v>0.039497</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="3" t="n">
         <v>0.049879008</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="4" t="n">
         <v>10.55</v>
       </c>
       <c r="G18" s="0" t="n">
@@ -1314,37 +1554,43 @@
       <c r="H18" s="0" t="n">
         <v>0.015529</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="2" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <v>0.002392</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>0.011305</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>0.03813</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="M18" s="3" t="n">
         <v>0.037144059</v>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="N18" s="4" t="n">
         <v>8.6</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>0.04062</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>0.016531</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>300</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.005161</v>
@@ -1355,10 +1601,10 @@
       <c r="D19" s="0" t="n">
         <v>0.040363</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>0.057462268</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="4" t="n">
         <v>8.58</v>
       </c>
       <c r="G19" s="0" t="n">
@@ -1367,37 +1613,43 @@
       <c r="H19" s="0" t="n">
         <v>0.014413</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="2" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="J19" s="0" t="n">
         <v>0.00248</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>0.011333</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>0.037696</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="M19" s="3" t="n">
         <v>0.041222086</v>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="N19" s="4" t="n">
         <v>7.94</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>0.040097</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>0.020037</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>300</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.001798</v>
@@ -1408,10 +1660,10 @@
       <c r="D20" s="0" t="n">
         <v>0.129659</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="3" t="n">
         <v>0.184509073</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="4" t="n">
         <v>9.2</v>
       </c>
       <c r="G20" s="0" t="n">
@@ -1420,37 +1672,43 @@
       <c r="H20" s="0" t="n">
         <v>0.008634</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="2" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="J20" s="0" t="n">
         <v>0.001505</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>0.001149</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>0.130671</v>
       </c>
-      <c r="L20" s="2" t="n">
+      <c r="M20" s="3" t="n">
         <v>0.189875285</v>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="N20" s="4" t="n">
         <v>7.84</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>0.168633</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>0.010177</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>244</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000693</v>
@@ -1461,10 +1719,10 @@
       <c r="D21" s="0" t="n">
         <v>0.076452</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="3" t="n">
         <v>0.113821278</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="4" t="n">
         <v>7.83</v>
       </c>
       <c r="G21" s="0" t="n">
@@ -1473,37 +1731,43 @@
       <c r="H21" s="0" t="n">
         <v>0.010006</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="2" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="J21" s="0" t="n">
         <v>0.00507</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>0.001165</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>0.072285</v>
       </c>
-      <c r="L21" s="2" t="n">
+      <c r="M21" s="3" t="n">
         <v>0.101478586</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="N21" s="4" t="n">
         <v>5.94</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>0.015487</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>0.012075</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>216</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.000731</v>
@@ -1514,10 +1778,10 @@
       <c r="D22" s="0" t="n">
         <v>0.083041</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <v>0.097986791</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="4" t="n">
         <v>8.95</v>
       </c>
       <c r="G22" s="0" t="n">
@@ -1526,37 +1790,43 @@
       <c r="H22" s="0" t="n">
         <v>0.015306</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="2" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="J22" s="0" t="n">
         <v>0.001335</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>0.0015</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>0.090544</v>
       </c>
-      <c r="L22" s="2" t="n">
+      <c r="M22" s="3" t="n">
         <v>0.087692937</v>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="N22" s="4" t="n">
         <v>8.17</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>0.04721</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>0.016262</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>339</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>332</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.124886</v>
@@ -1567,10 +1837,10 @@
       <c r="D23" s="0" t="n">
         <v>16.303976</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <v>20.868663764</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="4" t="n">
         <v>256.4</v>
       </c>
       <c r="G23" s="0" t="n">
@@ -1579,37 +1849,43 @@
       <c r="H23" s="0" t="n">
         <v>1.764916</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="2" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="J23" s="0" t="n">
         <v>0.250039</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>1.22211</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>15.756784</v>
       </c>
-      <c r="L23" s="2" t="n">
+      <c r="M23" s="3" t="n">
         <v>19.198405994</v>
       </c>
-      <c r="M23" s="3" t="n">
+      <c r="N23" s="4" t="n">
         <v>303.18</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>14.63486</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>2.181765</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>37865</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>37997</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.259439</v>
@@ -1620,10 +1896,10 @@
       <c r="D24" s="0" t="n">
         <v>14.329222</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="3" t="n">
         <v>20.265736767</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="4" t="n">
         <v>406.15</v>
       </c>
       <c r="G24" s="0" t="n">
@@ -1632,37 +1908,43 @@
       <c r="H24" s="0" t="n">
         <v>2.76358</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="2" t="n">
+        <v>6.654</v>
+      </c>
+      <c r="J24" s="0" t="n">
         <v>0.558125</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>1.371894</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>14.745187</v>
       </c>
-      <c r="L24" s="2" t="n">
+      <c r="M24" s="3" t="n">
         <v>17.845156291</v>
       </c>
-      <c r="M24" s="3" t="n">
+      <c r="N24" s="4" t="n">
         <v>598.65</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>15.26801</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>3.719523</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>45657</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>47039</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.037697</v>
@@ -1673,10 +1955,10 @@
       <c r="D25" s="0" t="n">
         <v>3.05149</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="3" t="n">
         <v>4.261839607</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="4" t="n">
         <v>59.08</v>
       </c>
       <c r="G25" s="0" t="n">
@@ -1685,37 +1967,43 @@
       <c r="H25" s="0" t="n">
         <v>0.313353</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="2" t="n">
+        <v>1.421</v>
+      </c>
+      <c r="J25" s="0" t="n">
         <v>0.047693</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>0.238788</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>3.317738</v>
       </c>
-      <c r="L25" s="2" t="n">
+      <c r="M25" s="3" t="n">
         <v>4.505104091</v>
       </c>
-      <c r="M25" s="3" t="n">
+      <c r="N25" s="4" t="n">
         <v>60.56</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>1.836754</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>4.186794</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>6099</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>6126</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.073137</v>
@@ -1726,10 +2014,10 @@
       <c r="D26" s="0" t="n">
         <v>6.687902</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="3" t="n">
         <v>9.916796636</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="4" t="n">
         <v>145.83</v>
       </c>
       <c r="G26" s="0" t="n">
@@ -1738,37 +2026,43 @@
       <c r="H26" s="0" t="n">
         <v>1.131861</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="2" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="J26" s="0" t="n">
         <v>0.131455</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>0.598267</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>6.948775</v>
       </c>
-      <c r="L26" s="2" t="n">
+      <c r="M26" s="3" t="n">
         <v>9.306845579</v>
       </c>
-      <c r="M26" s="3" t="n">
+      <c r="N26" s="4" t="n">
         <v>133.24</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>5.843052</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>1.237147</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>16861</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>17021</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.020245</v>
@@ -1779,10 +2073,10 @@
       <c r="D27" s="0" t="n">
         <v>3.178778</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="3" t="n">
         <v>4.089705101</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="4" t="n">
         <v>41.38</v>
       </c>
       <c r="G27" s="0" t="n">
@@ -1791,37 +2085,43 @@
       <c r="H27" s="0" t="n">
         <v>0.273178</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="2" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="J27" s="0" t="n">
         <v>0.058282</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>1.80345</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>3.115291</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="M27" s="3" t="n">
         <v>4.005117087</v>
       </c>
-      <c r="M27" s="3" t="n">
+      <c r="N27" s="4" t="n">
         <v>55.82</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>7.404715</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>0.344619</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>5490</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>5375</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.011115</v>
@@ -1832,10 +2132,10 @@
       <c r="D28" s="0" t="n">
         <v>1.482523</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="3" t="n">
         <v>2.020845114</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="4" t="n">
         <v>20.62</v>
       </c>
       <c r="G28" s="0" t="n">
@@ -1844,37 +2144,43 @@
       <c r="H28" s="0" t="n">
         <v>0.104172</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J28" s="0" t="n">
         <v>0.024439</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>0.027605</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>1.687311</v>
       </c>
-      <c r="L28" s="2" t="n">
+      <c r="M28" s="3" t="n">
         <v>2.188616129</v>
       </c>
-      <c r="M28" s="3" t="n">
+      <c r="N28" s="4" t="n">
         <v>32.36</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>0.466973</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>0.140526</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>2427</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>2387</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.014126</v>
@@ -1885,10 +2191,10 @@
       <c r="D29" s="0" t="n">
         <v>1.205554</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="3" t="n">
         <v>1.52360283</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="4" t="n">
         <v>23.05</v>
       </c>
       <c r="G29" s="0" t="n">
@@ -1897,37 +2203,43 @@
       <c r="H29" s="0" t="n">
         <v>0.117167</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="2" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="J29" s="0" t="n">
         <v>0.016884</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>0.282727</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>1.233603</v>
       </c>
-      <c r="L29" s="2" t="n">
+      <c r="M29" s="3" t="n">
         <v>1.815161016</v>
       </c>
-      <c r="M29" s="3" t="n">
+      <c r="N29" s="4" t="n">
         <v>21.6</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>0.371012</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>0.122255</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>2040</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>1902</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.011158</v>
@@ -1938,10 +2250,10 @@
       <c r="D30" s="0" t="n">
         <v>3.281118</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="3" t="n">
         <v>4.481300268</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="4" t="n">
         <v>48.02</v>
       </c>
       <c r="G30" s="0" t="n">
@@ -1950,37 +2262,43 @@
       <c r="H30" s="0" t="n">
         <v>0.17565</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="2" t="n">
+        <v>1.244</v>
+      </c>
+      <c r="J30" s="0" t="n">
         <v>0.029669</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>0.012851</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>3.430306</v>
       </c>
-      <c r="L30" s="2" t="n">
+      <c r="M30" s="3" t="n">
         <v>4.548698257</v>
       </c>
-      <c r="M30" s="3" t="n">
+      <c r="N30" s="4" t="n">
         <v>54.49</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>1.619028</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>0.197359</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>4356</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>4067</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.168628</v>
@@ -1991,10 +2309,10 @@
       <c r="D31" s="0" t="n">
         <v>9.234395</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="3" t="n">
         <v>12.982068494</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="4" t="n">
         <v>322.52</v>
       </c>
       <c r="G31" s="0" t="n">
@@ -2003,37 +2321,43 @@
       <c r="H31" s="0" t="n">
         <v>1.612557</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="2" t="n">
+        <v>4.537</v>
+      </c>
+      <c r="J31" s="0" t="n">
         <v>0.297333</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>2.244181</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>8.682214</v>
       </c>
-      <c r="L31" s="2" t="n">
+      <c r="M31" s="3" t="n">
         <v>12.397447136</v>
       </c>
-      <c r="M31" s="3" t="n">
+      <c r="N31" s="4" t="n">
         <v>189.91</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>7.403841</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>2.248964</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>24906</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>25795</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.019777</v>
@@ -2044,10 +2368,10 @@
       <c r="D32" s="0" t="n">
         <v>0.92039</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="3" t="n">
         <v>1.177119464</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="4" t="n">
         <v>40.06</v>
       </c>
       <c r="G32" s="0" t="n">
@@ -2056,37 +2380,43 @@
       <c r="H32" s="0" t="n">
         <v>0.269946</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="2" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="J32" s="0" t="n">
         <v>0.042123</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>0.411799</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>0.98169</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="M32" s="3" t="n">
         <v>1.384434157</v>
       </c>
-      <c r="M32" s="3" t="n">
+      <c r="N32" s="4" t="n">
         <v>41.28</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>1.68492</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>0.558026</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>4063</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>4413</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.142384</v>
@@ -2097,10 +2427,10 @@
       <c r="D33" s="0" t="n">
         <v>13.770156</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="3" t="n">
         <v>21.09903042</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="4" t="n">
         <v>512.47</v>
       </c>
       <c r="G33" s="0" t="n">
@@ -2109,37 +2439,43 @@
       <c r="H33" s="0" t="n">
         <v>2.25309</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="2" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="J33" s="0" t="n">
         <v>0.259932</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="K33" s="0" t="n">
         <v>1.220962</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="L33" s="0" t="n">
         <v>17.261497</v>
       </c>
-      <c r="L33" s="2" t="n">
+      <c r="M33" s="3" t="n">
         <v>21.831830143</v>
       </c>
-      <c r="M33" s="3" t="n">
+      <c r="N33" s="4" t="n">
         <v>240.07</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="O33" s="0" t="n">
         <v>17.99462</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="P33" s="0" t="n">
         <v>2.848969</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="Q33" s="0" t="n">
         <v>37822</v>
       </c>
-      <c r="Q33" s="0" t="n">
+      <c r="R33" s="0" t="n">
         <v>38672</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.070649</v>
@@ -2150,10 +2486,10 @@
       <c r="D34" s="0" t="n">
         <v>2.919494</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="3" t="n">
         <v>4.328732361</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" s="4" t="n">
         <v>56.01</v>
       </c>
       <c r="G34" s="0" t="n">
@@ -2162,37 +2498,43 @@
       <c r="H34" s="0" t="n">
         <v>0.645226</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="2" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="J34" s="0" t="n">
         <v>0.100034</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="K34" s="0" t="n">
         <v>0.657762</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="L34" s="0" t="n">
         <v>3.852454</v>
       </c>
-      <c r="L34" s="2" t="n">
+      <c r="M34" s="3" t="n">
         <v>5.271900714</v>
       </c>
-      <c r="M34" s="3" t="n">
+      <c r="N34" s="4" t="n">
         <v>64.05</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="O34" s="0" t="n">
         <v>2.57026</v>
       </c>
-      <c r="O34" s="0" t="n">
+      <c r="P34" s="0" t="n">
         <v>0.883578</v>
       </c>
-      <c r="P34" s="0" t="n">
+      <c r="Q34" s="0" t="n">
         <v>11038</v>
       </c>
-      <c r="Q34" s="0" t="n">
+      <c r="R34" s="0" t="n">
         <v>11751</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.025056</v>
@@ -2203,10 +2545,10 @@
       <c r="D35" s="0" t="n">
         <v>2.098104</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="3" t="n">
         <v>3.665815155</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F35" s="4" t="n">
         <v>52.06</v>
       </c>
       <c r="G35" s="0" t="n">
@@ -2215,37 +2557,43 @@
       <c r="H35" s="0" t="n">
         <v>0.310635</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="2" t="n">
+        <v>1.057</v>
+      </c>
+      <c r="J35" s="0" t="n">
         <v>0.040708</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="K35" s="0" t="n">
         <v>0.180696</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="L35" s="0" t="n">
         <v>2.675934</v>
       </c>
-      <c r="L35" s="2" t="n">
+      <c r="M35" s="3" t="n">
         <v>3.726900858</v>
       </c>
-      <c r="M35" s="3" t="n">
+      <c r="N35" s="4" t="n">
         <v>38.1</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="O35" s="0" t="n">
         <v>1.528859</v>
       </c>
-      <c r="O35" s="0" t="n">
+      <c r="P35" s="0" t="n">
         <v>0.430018</v>
       </c>
-      <c r="P35" s="0" t="n">
+      <c r="Q35" s="0" t="n">
         <v>6174</v>
       </c>
-      <c r="Q35" s="0" t="n">
+      <c r="R35" s="0" t="n">
         <v>6447</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.003245</v>
@@ -2256,10 +2604,10 @@
       <c r="D36" s="0" t="n">
         <v>0.27254</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="3" t="n">
         <v>0.441355891</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" s="4" t="n">
         <v>12.79</v>
       </c>
       <c r="G36" s="0" t="n">
@@ -2268,37 +2616,43 @@
       <c r="H36" s="0" t="n">
         <v>0.031805</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="2" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="J36" s="0" t="n">
         <v>0.005584</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="K36" s="0" t="n">
         <v>0.00694</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="L36" s="0" t="n">
         <v>0.372487</v>
       </c>
-      <c r="L36" s="2" t="n">
+      <c r="M36" s="3" t="n">
         <v>0.482841861</v>
       </c>
-      <c r="M36" s="3" t="n">
+      <c r="N36" s="4" t="n">
         <v>11.54</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="O36" s="0" t="n">
         <v>0.158902</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="P36" s="0" t="n">
         <v>0.2059</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="Q36" s="0" t="n">
         <v>738</v>
       </c>
-      <c r="Q36" s="0" t="n">
+      <c r="R36" s="0" t="n">
         <v>740</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.158044</v>
@@ -2309,10 +2663,10 @@
       <c r="D37" s="0" t="n">
         <v>13.005833</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="3" t="n">
         <v>23.80962468</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" s="4" t="n">
         <v>275.8</v>
       </c>
       <c r="G37" s="0" t="n">
@@ -2321,37 +2675,43 @@
       <c r="H37" s="0" t="n">
         <v>2.506894</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="2" t="n">
+        <v>9.287</v>
+      </c>
+      <c r="J37" s="0" t="n">
         <v>0.301919</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="K37" s="0" t="n">
         <v>4.463294</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="L37" s="0" t="n">
         <v>16.620968</v>
       </c>
-      <c r="L37" s="2" t="n">
+      <c r="M37" s="3" t="n">
         <v>21.802530578</v>
       </c>
-      <c r="M37" s="3" t="n">
+      <c r="N37" s="4" t="n">
         <v>208.95</v>
       </c>
-      <c r="N37" s="0" t="n">
+      <c r="O37" s="0" t="n">
         <v>15.14658</v>
       </c>
-      <c r="O37" s="0" t="n">
+      <c r="P37" s="0" t="n">
         <v>2.597908</v>
       </c>
-      <c r="P37" s="0" t="n">
+      <c r="Q37" s="0" t="n">
         <v>35765</v>
       </c>
-      <c r="Q37" s="0" t="n">
+      <c r="R37" s="0" t="n">
         <v>36946</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.344215</v>
@@ -2362,10 +2722,10 @@
       <c r="D38" s="0" t="n">
         <v>14.79255</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="3" t="n">
         <v>22.625863255</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F38" s="4" t="n">
         <v>257.56</v>
       </c>
       <c r="G38" s="0" t="n">
@@ -2374,37 +2734,43 @@
       <c r="H38" s="0" t="n">
         <v>4.583201</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="2" t="n">
+        <v>12.738</v>
+      </c>
+      <c r="J38" s="0" t="n">
         <v>0.46794</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="K38" s="0" t="n">
         <v>6.199828</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="L38" s="0" t="n">
         <v>17.219125</v>
       </c>
-      <c r="L38" s="2" t="n">
+      <c r="M38" s="3" t="n">
         <v>24.701129614</v>
       </c>
-      <c r="M38" s="3" t="n">
+      <c r="N38" s="4" t="n">
         <v>320.46</v>
       </c>
-      <c r="N38" s="0" t="n">
+      <c r="O38" s="0" t="n">
         <v>38.72352</v>
       </c>
-      <c r="O38" s="0" t="n">
+      <c r="P38" s="0" t="n">
         <v>4.468582</v>
       </c>
-      <c r="P38" s="0" t="n">
+      <c r="Q38" s="0" t="n">
         <v>50279</v>
       </c>
-      <c r="Q38" s="0" t="n">
+      <c r="R38" s="0" t="n">
         <v>53639</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>4.4E-005</v>
@@ -2415,10 +2781,10 @@
       <c r="D39" s="0" t="n">
         <v>0.041449</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="3" t="n">
         <v>0.05033379</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F39" s="4" t="n">
         <v>3.06</v>
       </c>
       <c r="G39" s="0" t="n">
@@ -2427,37 +2793,43 @@
       <c r="H39" s="0" t="n">
         <v>0.000717</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J39" s="0" t="n">
         <v>0.000147</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="K39" s="0" t="n">
         <v>1.6E-005</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="L39" s="0" t="n">
         <v>0.038885</v>
       </c>
-      <c r="L39" s="2" t="n">
+      <c r="M39" s="3" t="n">
         <v>0.074175344</v>
       </c>
-      <c r="M39" s="3" t="n">
+      <c r="N39" s="4" t="n">
         <v>2.76</v>
       </c>
-      <c r="N39" s="0" t="n">
+      <c r="O39" s="0" t="n">
         <v>0.003177</v>
       </c>
-      <c r="O39" s="0" t="n">
+      <c r="P39" s="0" t="n">
         <v>0.000733</v>
       </c>
-      <c r="P39" s="0" t="n">
+      <c r="Q39" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="Q39" s="0" t="n">
+      <c r="R39" s="0" t="n">
         <v>14</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>4.5E-005</v>
@@ -2468,10 +2840,10 @@
       <c r="D40" s="0" t="n">
         <v>0.038355</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="3" t="n">
         <v>0.047819613</v>
       </c>
-      <c r="F40" s="3" t="n">
+      <c r="F40" s="4" t="n">
         <v>4.33</v>
       </c>
       <c r="G40" s="0" t="n">
@@ -2480,37 +2852,43 @@
       <c r="H40" s="0" t="n">
         <v>0.000846</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40" s="2" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="J40" s="0" t="n">
         <v>0.000118</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="K40" s="0" t="n">
         <v>1.5E-005</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="L40" s="0" t="n">
         <v>0.041292</v>
       </c>
-      <c r="L40" s="2" t="n">
+      <c r="M40" s="3" t="n">
         <v>0.032013931</v>
       </c>
-      <c r="M40" s="3" t="n">
+      <c r="N40" s="4" t="n">
         <v>3.11</v>
       </c>
-      <c r="N40" s="0" t="n">
+      <c r="O40" s="0" t="n">
         <v>0.002567</v>
       </c>
-      <c r="O40" s="0" t="n">
+      <c r="P40" s="0" t="n">
         <v>0.000762</v>
       </c>
-      <c r="P40" s="0" t="n">
+      <c r="Q40" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="Q40" s="0" t="n">
+      <c r="R40" s="0" t="n">
         <v>14</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.071925</v>
@@ -2521,10 +2899,10 @@
       <c r="D41" s="0" t="n">
         <v>8.19395</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="3" t="n">
         <v>11.868058716</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="F41" s="4" t="n">
         <v>79.65</v>
       </c>
       <c r="G41" s="0" t="n">
@@ -2533,32 +2911,38 @@
       <c r="H41" s="0" t="n">
         <v>0.929326</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="I41" s="2" t="n">
+        <v>4.939</v>
+      </c>
+      <c r="J41" s="0" t="n">
         <v>0.15004</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="K41" s="0" t="n">
         <v>0.366232</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="L41" s="0" t="n">
         <v>8.279686</v>
       </c>
-      <c r="L41" s="2" t="n">
+      <c r="M41" s="3" t="n">
         <v>11.303440019</v>
       </c>
-      <c r="M41" s="3" t="n">
+      <c r="N41" s="4" t="n">
         <v>144.15</v>
       </c>
-      <c r="N41" s="0" t="n">
+      <c r="O41" s="0" t="n">
         <v>15.20058</v>
       </c>
-      <c r="O41" s="0" t="n">
+      <c r="P41" s="0" t="n">
         <v>1.089505</v>
       </c>
-      <c r="P41" s="0" t="n">
+      <c r="Q41" s="0" t="n">
         <v>17677</v>
       </c>
-      <c r="Q41" s="0" t="n">
+      <c r="R41" s="0" t="n">
         <v>17890</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
